--- a/data/data-dictionary.xlsx
+++ b/data/data-dictionary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Variable</t>
   </si>
@@ -25,7 +25,7 @@
     <t>n</t>
   </si>
   <si>
-    <t>Total number of runners that completed the marathon</t>
+    <t>Total number of runners who completed the marathon</t>
   </si>
   <si>
     <t>Integer</t>
@@ -37,19 +37,22 @@
     <t>Name of the marathon event</t>
   </si>
   <si>
-    <t>Categorical</t>
+    <t>Factor with 3 levels</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>Year of the marathon</t>
+    <t>Year the marathon occurred</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>Gender category of runners</t>
+    <t>Gender category of runners (female/nonbinary and male)</t>
+  </si>
+  <si>
+    <t>Factor with 2 levels</t>
   </si>
   <si>
     <t>subgroup</t>
@@ -58,7 +61,7 @@
     <t>Running performance category: elite, competitive, average, recreational, slow</t>
   </si>
   <si>
-    <t>Factor (5 levels)</t>
+    <t>Factor with 5 levels</t>
   </si>
   <si>
     <t>avg_chip_seconds</t>
@@ -70,64 +73,40 @@
     <t>Numerical</t>
   </si>
   <si>
-    <t>high_temp</t>
-  </si>
-  <si>
-    <t>Daily high temperature on race day (°F)</t>
-  </si>
-  <si>
-    <t>low_temp</t>
-  </si>
-  <si>
-    <t>Daily low temperature on race day (°F)</t>
-  </si>
-  <si>
     <t>avg_temp</t>
   </si>
   <si>
-    <t>Daily average temperature (°F)</t>
+    <t>Average race day temperature (°F)</t>
   </si>
   <si>
     <t>precipitation</t>
   </si>
   <si>
-    <t>Total precipitation on race day (inches)</t>
+    <t>Total precipitation on race day (in)</t>
   </si>
   <si>
     <t>dew_point</t>
   </si>
   <si>
-    <t>Average dew point temperature (°F) on race day</t>
+    <t>Average race day dew point temperature (°F)</t>
   </si>
   <si>
     <t>wind_speed</t>
   </si>
   <si>
-    <t>Average wind speed on race day (mph)</t>
+    <t>Average race day wind speed (mph)</t>
   </si>
   <si>
     <t>visibility</t>
   </si>
   <si>
-    <t>Average visibility on race day (statute miles)</t>
+    <t>Average race day visibility (miles)</t>
   </si>
   <si>
     <t>sea_level_pressure</t>
   </si>
   <si>
-    <t>Average sea level pressure on race day (inHg)</t>
-  </si>
-  <si>
-    <t>aqi</t>
-  </si>
-  <si>
-    <t>Average Air Quality Index on race day</t>
-  </si>
-  <si>
-    <t>main_pollutant</t>
-  </si>
-  <si>
-    <t>Primary pollutant on race day</t>
+    <t>Average race day sea level pressure (inHg)</t>
   </si>
   <si>
     <t>co</t>
@@ -142,29 +121,53 @@
     <t>Average ozone (AQI) on race day</t>
   </si>
   <si>
-    <t>pm10</t>
-  </si>
-  <si>
-    <t>Average particulate matter &lt; 10 micrometers (PM10) on race day</t>
-  </si>
-  <si>
     <t>pm25</t>
   </si>
   <si>
-    <t>Average particulate matter &lt; 2.5 micrometers (PM2.5) on race day</t>
+    <t>Average PM2.5 (AQI) on race day</t>
   </si>
   <si>
     <t>no2</t>
   </si>
   <si>
     <t>Average nitrogen dioxide (AQI) on race day</t>
+  </si>
+  <si>
+    <t>supershoe</t>
+  </si>
+  <si>
+    <t>Indicator for supershoe prevalence (0 = low usage, 1 = high usage)</t>
+  </si>
+  <si>
+    <t>temp_aqi_interaction</t>
+  </si>
+  <si>
+    <t>Interaction term: avg_temp × 1(male) (0 for females, 1 for males)</t>
+  </si>
+  <si>
+    <t>avg_temp_gender_interaction</t>
+  </si>
+  <si>
+    <t>Interaction term: avg_temp × gender (0/1-coded internally)</t>
+  </si>
+  <si>
+    <t>ozone_bin</t>
+  </si>
+  <si>
+    <t>Binned ozone variable: 0 = low ozone, 1 = high ozone</t>
+  </si>
+  <si>
+    <t>pm25_bin</t>
+  </si>
+  <si>
+    <t>Binned PM2.5 variable: 0 = low PM2.5, 1 = high PM2.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,22 +176,43 @@
     </font>
     <font>
       <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="'Times New Roman'"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="'Times New Roman'"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1E2023"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,15 +221,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,9 +456,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.5"/>
-    <col customWidth="1" min="2" max="2" width="59.13"/>
-    <col customWidth="1" min="3" max="3" width="14.13"/>
+    <col customWidth="1" min="1" max="1" width="29.5"/>
+    <col customWidth="1" min="2" max="2" width="65.25"/>
+    <col customWidth="1" min="3" max="3" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,125 +513,125 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -606,69 +639,97 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
